--- a/result_rprecision.xlsx
+++ b/result_rprecision.xlsx
@@ -344,7 +344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:F18"/>
@@ -1024,6 +1024,342 @@
         </is>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>#########</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>TESTIFY</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Hamming Loss</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Actual Genre</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Predict Genre</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Titanic</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>['Romance', 'Drama']</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>['Action', 'Adventure']</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Total-Recall</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>['Sci-Fi', 'Adventure', 'Action', 'Thriller']</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>['Action', 'Crime', 'Drama', 'Thriller']</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Godfather</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>['Crime', 'Drama']</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>['Drama', 'Romance']</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Inglourious-Basterds</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>['Adventure', 'Action']</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>['Drama', 'Thriller']</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Mad-Max-2-The-Road-Warrior</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>['Sci-Fi', 'Adventure', 'Action']</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>['Action', 'Crime', 'Sci-Fi']</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Hackers</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>['Action', 'Thriller', 'Crime', 'Drama']</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>['Action', 'Comedy', 'Crime', 'Romance']</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>War-Horse</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>['Drama']</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>['Adventure']</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Yes-Man</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>['Romance', 'Comedy']</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>['Animation', 'Family']</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Lord-of-the-Rings-The-Two-Towers</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>['Adventure', 'Action', 'Fantasy']</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>['Action', 'Adventure', 'Fantasy']</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Hostage</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>['Action', 'Thriller', 'Crime', 'Drama']</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>['Crime', 'Drama', 'Horror', 'Thriller']</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Blade</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>['Sci-Fi', 'Horror', 'Action']</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>['Fantasy', 'Horror', 'Thriller']</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Jurassic-Park-The-Lost-World</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>['Sci-Fi', 'Adventure', 'Horror', 'Action', 'Thriller']</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>['Action', 'Adventure', 'Horror', 'Sci-Fi', 'Thriller']</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Alien</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>['Sci-Fi', 'Horror', 'Action', 'Thriller']</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>['Action', 'Adventure', 'Sci-Fi', 'Thriller']</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Thor</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>['Adventure', 'Action', 'Fantasy']</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>['Action', 'Crime', 'Romance']</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>average hl</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.4523809523809524</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>#########</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>#########</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/result_rprecision.xlsx
+++ b/result_rprecision.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/nlp/nlp_t2m/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B37F1A-BFAD-9D47-8654-198833D736BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47BB601-D85C-9F4D-A5CC-6F40E8ABAF85}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,6 +52,9 @@
     <t>['Action', 'Adventure']</t>
   </si>
   <si>
+    <t>['Adventure', 'Family']</t>
+  </si>
+  <si>
     <t>Total-Recall</t>
   </si>
   <si>
@@ -103,6 +106,9 @@
     <t>['Action', 'Adventure', 'Drama']</t>
   </si>
   <si>
+    <t>['Action', 'Adventure', 'Comedy']</t>
+  </si>
+  <si>
     <t>Hackers</t>
   </si>
   <si>
@@ -118,6 +124,9 @@
     <t>['Action', 'Comedy', 'Drama', 'Sci-Fi']</t>
   </si>
   <si>
+    <t>['Comedy', 'Crime', 'Drama', 'Romance']</t>
+  </si>
+  <si>
     <t>War-Horse</t>
   </si>
   <si>
@@ -202,9 +211,6 @@
     <t>average hl</t>
   </si>
   <si>
-    <t>['Adventure', 'Family']</t>
-  </si>
-  <si>
     <t>['Action', 'Adventure', 'Mystery', 'Thriller']</t>
   </si>
   <si>
@@ -217,15 +223,9 @@
     <t>['Comedy', 'Romance']</t>
   </si>
   <si>
-    <t>['Action', 'Adventure', 'Comedy']</t>
-  </si>
-  <si>
     <t>['Action', 'Adventure', 'Thriller']</t>
   </si>
   <si>
-    <t>['Comedy', 'Crime', 'Drama', 'Romance']</t>
-  </si>
-  <si>
     <t>['Action', 'Adventure', 'Fantasy']</t>
   </si>
   <si>
@@ -265,6 +265,9 @@
     <t>['Family', 'Romance']</t>
   </si>
   <si>
+    <t>['Crime', 'Romance']</t>
+  </si>
+  <si>
     <t>['Action', 'Thriller']</t>
   </si>
   <si>
@@ -329,9 +332,6 @@
   </si>
   <si>
     <t>Boundary</t>
-  </si>
-  <si>
-    <t>['Crime', 'Romance']</t>
   </si>
 </sst>
 </file>
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I41" workbookViewId="0">
-      <selection activeCell="X65" sqref="X65"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="L88" sqref="L88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -823,680 +823,680 @@
         <v>8</v>
       </c>
       <c r="AB4" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:28">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0.75</v>
       </c>
       <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
         <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
       </c>
       <c r="J5">
         <v>0.5</v>
       </c>
       <c r="K5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" t="s">
         <v>11</v>
-      </c>
-      <c r="L5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>10</v>
       </c>
       <c r="R5">
         <v>0.75</v>
       </c>
       <c r="S5" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y5" t="s">
         <v>11</v>
-      </c>
-      <c r="T5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>10</v>
       </c>
       <c r="Z5">
         <v>0.5</v>
       </c>
       <c r="AA5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:28">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
         <v>17</v>
       </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" t="s">
         <v>16</v>
-      </c>
-      <c r="L6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>15</v>
       </c>
       <c r="R6">
         <v>0.5</v>
       </c>
       <c r="S6" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y6" t="s">
         <v>16</v>
       </c>
-      <c r="T6" t="s">
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="s">
         <v>17</v>
       </c>
-      <c r="Y6" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z6">
-        <v>1</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>16</v>
-      </c>
       <c r="AB6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:28">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
         <v>20</v>
       </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" t="s">
         <v>19</v>
       </c>
-      <c r="L7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>18</v>
-      </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y7" t="s">
         <v>19</v>
       </c>
-      <c r="T7" t="s">
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB7" t="s">
         <v>22</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:28">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>0.66666666666666663</v>
       </c>
       <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
+      <c r="J8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K8" t="s">
         <v>25</v>
       </c>
-      <c r="I8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" t="s">
         <v>24</v>
       </c>
-      <c r="L8" t="s">
+      <c r="R8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="S8" t="s">
+        <v>25</v>
+      </c>
+      <c r="T8" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="Y8" t="s">
         <v>24</v>
       </c>
-      <c r="T8" t="s">
+      <c r="Z8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AA8" t="s">
         <v>25</v>
       </c>
-      <c r="Y8" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>24</v>
-      </c>
       <c r="AB8" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>0.25</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
         <v>29</v>
-      </c>
-      <c r="I9" t="s">
-        <v>27</v>
       </c>
       <c r="J9">
         <v>0.25</v>
       </c>
       <c r="K9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R9">
         <v>0.5</v>
       </c>
       <c r="S9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Y9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Z9">
         <v>0.5</v>
       </c>
       <c r="AA9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB9" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Y10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AB10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Y11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AB11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:28">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>0.66666666666666663</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J12">
         <v>0.66666666666666663</v>
       </c>
       <c r="K12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="R12">
         <v>0.66666666666666663</v>
       </c>
       <c r="S12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y12" t="s">
         <v>41</v>
       </c>
-      <c r="Y12" t="s">
-        <v>38</v>
-      </c>
       <c r="Z12">
         <v>0.66666666666666663</v>
       </c>
       <c r="AA12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:28">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B13">
         <v>0.5</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J13">
         <v>0.5</v>
       </c>
       <c r="K13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="R13">
         <v>0.5</v>
       </c>
       <c r="S13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Y13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Z13">
         <v>0.5</v>
       </c>
       <c r="AA13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:28">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B14">
         <v>0.66666666666666663</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J14">
         <v>0.66666666666666663</v>
       </c>
       <c r="K14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L14" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q14" t="s">
         <v>48</v>
       </c>
-      <c r="Q14" t="s">
-        <v>45</v>
-      </c>
       <c r="R14">
         <v>0.66666666666666663</v>
       </c>
       <c r="S14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="T14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Y14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z14">
         <v>0.66666666666666663</v>
       </c>
       <c r="AA14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AB14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:28">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0.8</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J15">
         <v>0.8</v>
       </c>
       <c r="K15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L15" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q15" t="s">
         <v>52</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>49</v>
       </c>
       <c r="R15">
         <v>0.6</v>
       </c>
       <c r="S15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="T15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Y15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Z15">
         <v>0.8</v>
       </c>
       <c r="AA15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AB15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:28">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B16">
         <v>0.75</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J16">
         <v>0.5</v>
       </c>
       <c r="K16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="R16">
         <v>0.75</v>
       </c>
       <c r="S16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Z16">
         <v>0.75</v>
       </c>
       <c r="AA16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:28">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B17">
         <v>0.66666666666666663</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J17">
         <v>0.66666666666666663</v>
       </c>
       <c r="K17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Q17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="R17">
         <v>0.66666666666666663</v>
       </c>
       <c r="S17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Y17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Z17">
         <v>0.66666666666666663</v>
       </c>
       <c r="AA17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:28">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B18">
         <v>0.44404761904761908</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J18">
         <v>0.44404761904761908</v>
       </c>
       <c r="Q18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="R18">
         <v>0.44761904761904758</v>
       </c>
       <c r="Y18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Z18">
         <v>0.47976190476190478</v>
@@ -1627,7 +1627,7 @@
         <v>8</v>
       </c>
       <c r="L22" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="Q22" t="s">
         <v>7</v>
@@ -1651,204 +1651,204 @@
         <v>8</v>
       </c>
       <c r="AB22" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:28">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>0.75</v>
       </c>
       <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" t="s">
         <v>11</v>
-      </c>
-      <c r="D23" t="s">
-        <v>61</v>
-      </c>
-      <c r="I23" t="s">
-        <v>10</v>
       </c>
       <c r="J23">
         <v>0.75</v>
       </c>
       <c r="K23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q23" t="s">
         <v>11</v>
-      </c>
-      <c r="L23" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>10</v>
       </c>
       <c r="R23">
         <v>0.75</v>
       </c>
       <c r="S23" t="s">
+        <v>12</v>
+      </c>
+      <c r="T23" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y23" t="s">
         <v>11</v>
-      </c>
-      <c r="T23" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>10</v>
       </c>
       <c r="Z23">
         <v>0.75</v>
       </c>
       <c r="AA23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:28">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" t="s">
         <v>16</v>
       </c>
-      <c r="D24" t="s">
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q24" t="s">
         <v>16</v>
-      </c>
-      <c r="I24" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>15</v>
       </c>
       <c r="R24">
         <v>0.5</v>
       </c>
       <c r="S24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T24" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y24" t="s">
         <v>16</v>
       </c>
-      <c r="T24" t="s">
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24" t="s">
         <v>17</v>
       </c>
-      <c r="Y24" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z24">
-        <v>1</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>16</v>
-      </c>
       <c r="AB24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:28">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" t="s">
         <v>19</v>
       </c>
-      <c r="D25" t="s">
-        <v>63</v>
-      </c>
-      <c r="I25" t="s">
-        <v>18</v>
-      </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q25" t="s">
         <v>19</v>
       </c>
-      <c r="L25" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>18</v>
-      </c>
       <c r="R25">
         <v>0</v>
       </c>
       <c r="S25" t="s">
+        <v>20</v>
+      </c>
+      <c r="T25" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y25" t="s">
         <v>19</v>
       </c>
-      <c r="T25" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>18</v>
-      </c>
       <c r="Z25">
         <v>0</v>
       </c>
       <c r="AA25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:28">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>0.66666666666666663</v>
       </c>
       <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
         <v>24</v>
       </c>
-      <c r="D26" t="s">
-        <v>65</v>
-      </c>
-      <c r="I26" t="s">
-        <v>23</v>
-      </c>
       <c r="J26">
         <v>0.66666666666666663</v>
       </c>
       <c r="K26" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q26" t="s">
         <v>24</v>
       </c>
-      <c r="L26" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>23</v>
-      </c>
       <c r="R26">
         <v>0.66666666666666663</v>
       </c>
       <c r="S26" t="s">
+        <v>25</v>
+      </c>
+      <c r="T26" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y26" t="s">
         <v>24</v>
       </c>
-      <c r="T26" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>23</v>
-      </c>
       <c r="Z26">
         <v>0.66666666666666663</v>
       </c>
       <c r="AA26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB26" t="s">
         <v>68</v>
@@ -1856,299 +1856,299 @@
     </row>
     <row r="27" spans="1:28">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>0.5</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="I27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J27">
         <v>0.5</v>
       </c>
       <c r="K27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L27" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="Q27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R27">
         <v>0.5</v>
       </c>
       <c r="S27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T27" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="Y27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Z27">
         <v>0.5</v>
       </c>
       <c r="AA27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB27" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:28">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I28" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L28" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q28" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R28">
         <v>0</v>
       </c>
       <c r="S28" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T28" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Y28" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z28">
         <v>0</v>
       </c>
       <c r="AA28" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AB28" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:28">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I29" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q29" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="R29">
         <v>0</v>
       </c>
       <c r="S29" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Y29" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Z29">
         <v>0</v>
       </c>
       <c r="AA29" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AB29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:28">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B30">
         <v>0.66666666666666663</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D30" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" t="s">
         <v>41</v>
       </c>
-      <c r="I30" t="s">
-        <v>38</v>
-      </c>
       <c r="J30">
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L30" t="s">
         <v>68</v>
       </c>
       <c r="Q30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="R30">
         <v>0.66666666666666663</v>
       </c>
       <c r="S30" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T30" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y30" t="s">
         <v>41</v>
       </c>
-      <c r="Y30" t="s">
-        <v>38</v>
-      </c>
       <c r="Z30">
         <v>0.66666666666666663</v>
       </c>
       <c r="AA30" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB30" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:28">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B31">
         <v>0.75</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
         <v>69</v>
       </c>
       <c r="I31" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J31">
         <v>0.5</v>
       </c>
       <c r="K31" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q31" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="R31">
         <v>0.75</v>
       </c>
       <c r="S31" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T31" t="s">
         <v>69</v>
       </c>
       <c r="Y31" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Z31">
         <v>0.5</v>
       </c>
       <c r="AA31" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:28">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B32">
         <v>0.66666666666666663</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
         <v>70</v>
       </c>
       <c r="I32" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L32" t="s">
         <v>71</v>
       </c>
       <c r="Q32" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="R32">
         <v>0.66666666666666663</v>
       </c>
       <c r="S32" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="T32" t="s">
         <v>70</v>
       </c>
       <c r="Y32" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z32">
         <v>1</v>
       </c>
       <c r="AA32" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AB32" t="s">
         <v>71</v>
@@ -2156,149 +2156,149 @@
     </row>
     <row r="33" spans="1:28">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B33">
         <v>0.6</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D33" t="s">
         <v>72</v>
       </c>
       <c r="I33" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J33">
         <v>0.8</v>
       </c>
       <c r="K33" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L33" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q33" t="s">
         <v>52</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>49</v>
       </c>
       <c r="R33">
         <v>0.6</v>
       </c>
       <c r="S33" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="T33" t="s">
         <v>72</v>
       </c>
       <c r="Y33" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Z33">
         <v>0.8</v>
       </c>
       <c r="AA33" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AB33" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:28">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B34">
         <v>0.5</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D34" t="s">
         <v>73</v>
       </c>
       <c r="I34" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J34">
         <v>0.5</v>
       </c>
       <c r="K34" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L34" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q34" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="R34">
         <v>0.5</v>
       </c>
       <c r="S34" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T34" t="s">
         <v>73</v>
       </c>
       <c r="Y34" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Z34">
         <v>0.5</v>
       </c>
       <c r="AA34" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB34" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:28">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B35">
         <v>0.66666666666666663</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I35" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J35">
         <v>0.66666666666666663</v>
       </c>
       <c r="K35" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L35" t="s">
         <v>74</v>
       </c>
       <c r="Q35" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="R35">
         <v>0.33333333333333331</v>
       </c>
       <c r="S35" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T35" t="s">
         <v>75</v>
       </c>
       <c r="Y35" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Z35">
         <v>0.66666666666666663</v>
       </c>
       <c r="AA35" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB35" t="s">
         <v>74</v>
@@ -2306,25 +2306,25 @@
     </row>
     <row r="36" spans="1:28">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B36">
         <v>0.48333333333333328</v>
       </c>
       <c r="I36" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J36">
         <v>0.52738095238095239</v>
       </c>
       <c r="Q36" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="R36">
         <v>0.42380952380952369</v>
       </c>
       <c r="Y36" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Z36">
         <v>0.50357142857142856</v>
@@ -2484,49 +2484,49 @@
     </row>
     <row r="41" spans="1:28">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>0.5</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D41" t="s">
         <v>77</v>
       </c>
       <c r="I41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J41">
         <v>0.75</v>
       </c>
       <c r="K41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L41" t="s">
         <v>78</v>
       </c>
       <c r="Q41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R41">
         <v>0.75</v>
       </c>
       <c r="S41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T41" t="s">
         <v>78</v>
       </c>
       <c r="Y41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z41">
         <v>0.75</v>
       </c>
       <c r="AA41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB41" t="s">
         <v>78</v>
@@ -2534,149 +2534,149 @@
     </row>
     <row r="42" spans="1:28">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B42">
         <v>0.5</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D42" t="s">
         <v>79</v>
       </c>
       <c r="I42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J42">
         <v>1</v>
       </c>
       <c r="K42" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q42" t="s">
         <v>16</v>
       </c>
-      <c r="L42" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>15</v>
-      </c>
       <c r="R42">
         <v>0</v>
       </c>
       <c r="S42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T42" t="s">
         <v>80</v>
       </c>
       <c r="Y42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z42">
         <v>0.5</v>
       </c>
       <c r="AA42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AB42" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:28">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" t="s">
         <v>19</v>
       </c>
-      <c r="D43" t="s">
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
         <v>20</v>
       </c>
-      <c r="I43" t="s">
-        <v>18</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q43" t="s">
         <v>19</v>
-      </c>
-      <c r="L43" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>18</v>
       </c>
       <c r="R43">
         <v>0.5</v>
       </c>
       <c r="S43" t="s">
+        <v>20</v>
+      </c>
+      <c r="T43" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y43" t="s">
         <v>19</v>
       </c>
-      <c r="T43" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>18</v>
-      </c>
       <c r="Z43">
         <v>0</v>
       </c>
       <c r="AA43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:28">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B44">
         <v>0.66666666666666663</v>
       </c>
       <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I44" t="s">
         <v>24</v>
       </c>
-      <c r="D44" t="s">
-        <v>82</v>
-      </c>
-      <c r="I44" t="s">
-        <v>23</v>
-      </c>
       <c r="J44">
         <v>0.66666666666666663</v>
       </c>
       <c r="K44" t="s">
+        <v>25</v>
+      </c>
+      <c r="L44" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q44" t="s">
         <v>24</v>
       </c>
-      <c r="L44" t="s">
+      <c r="R44">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="S44" t="s">
+        <v>25</v>
+      </c>
+      <c r="T44" t="s">
         <v>83</v>
       </c>
-      <c r="Q44" t="s">
-        <v>23</v>
-      </c>
-      <c r="R44">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="S44" t="s">
+      <c r="Y44" t="s">
         <v>24</v>
       </c>
-      <c r="T44" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>23</v>
-      </c>
       <c r="Z44">
         <v>1</v>
       </c>
       <c r="AA44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB44" t="s">
         <v>74</v>
@@ -2684,199 +2684,199 @@
     </row>
     <row r="45" spans="1:28">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B45">
         <v>0.5</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I45" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J45">
         <v>0.5</v>
       </c>
       <c r="K45" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L45" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="Q45" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R45">
         <v>0.25</v>
       </c>
       <c r="S45" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Y45" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Z45">
         <v>0.5</v>
       </c>
       <c r="AA45" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB45" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:28">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D46" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I46" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L46" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q46" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R46">
         <v>0</v>
       </c>
       <c r="S46" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T46" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Y46" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z46">
         <v>0</v>
       </c>
       <c r="AA46" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AB46" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:28">
       <c r="A47" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D47" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I47" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L47" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q47" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="R47">
         <v>0</v>
       </c>
       <c r="S47" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T47" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Y47" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Z47">
         <v>0</v>
       </c>
       <c r="AA47" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AB47" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:28">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D48" t="s">
         <v>68</v>
       </c>
       <c r="I48" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L48" t="s">
         <v>68</v>
       </c>
       <c r="Q48" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="R48">
         <v>1</v>
       </c>
       <c r="S48" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T48" t="s">
         <v>68</v>
       </c>
       <c r="Y48" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z48">
         <v>1</v>
       </c>
       <c r="AA48" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB48" t="s">
         <v>68</v>
@@ -2884,249 +2884,249 @@
     </row>
     <row r="49" spans="1:28">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B49">
         <v>0.75</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I49" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J49">
         <v>0.5</v>
       </c>
       <c r="K49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L49" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q49" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="R49">
         <v>0.75</v>
       </c>
       <c r="S49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y49" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Z49">
         <v>0.5</v>
       </c>
       <c r="AA49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB49" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:28">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>0.33333333333333331</v>
       </c>
       <c r="C50" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I50" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J50">
         <v>0.66666666666666663</v>
       </c>
       <c r="K50" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q50" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="R50">
         <v>0.33333333333333331</v>
       </c>
       <c r="S50" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="T50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y50" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z50">
         <v>0.66666666666666663</v>
       </c>
       <c r="AA50" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AB50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:28">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D51" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I51" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J51">
         <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L51" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q51" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="R51">
         <v>0.8</v>
       </c>
       <c r="S51" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="T51" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y51" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Z51">
         <v>0.8</v>
       </c>
       <c r="AA51" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AB51" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:28">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0.75</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D52" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I52" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J52">
         <v>0.75</v>
       </c>
       <c r="K52" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q52" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="R52">
         <v>0.75</v>
       </c>
       <c r="S52" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T52" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y52" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Z52">
         <v>0.75</v>
       </c>
       <c r="AA52" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:28">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
         <v>0.33333333333333331</v>
       </c>
       <c r="C53" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D53" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I53" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J53">
         <v>0.66666666666666663</v>
       </c>
       <c r="K53" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L53" t="s">
         <v>74</v>
       </c>
       <c r="Q53" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="R53">
         <v>0.33333333333333331</v>
       </c>
       <c r="S53" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T53" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y53" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Z53">
         <v>0.66666666666666663</v>
       </c>
       <c r="AA53" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB53" t="s">
         <v>74</v>
@@ -3134,25 +3134,25 @@
     </row>
     <row r="54" spans="1:28">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B54">
         <v>0.45238095238095238</v>
       </c>
       <c r="I54" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J54">
         <v>0.5357142857142857</v>
       </c>
       <c r="Q54" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="R54">
         <v>0.43809523809523798</v>
       </c>
       <c r="Y54" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Z54">
         <v>0.5095238095238096</v>
@@ -3271,7 +3271,7 @@
         <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I58" t="s">
         <v>7</v>
@@ -3295,7 +3295,7 @@
         <v>8</v>
       </c>
       <c r="T58" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y58" t="s">
         <v>7</v>
@@ -3312,399 +3312,399 @@
     </row>
     <row r="59" spans="1:28">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B59">
         <v>0.5</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D59" t="s">
         <v>77</v>
       </c>
       <c r="I59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J59">
         <v>0.5</v>
       </c>
       <c r="K59" t="s">
+        <v>12</v>
+      </c>
+      <c r="L59" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q59" t="s">
         <v>11</v>
-      </c>
-      <c r="L59" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>10</v>
       </c>
       <c r="R59">
         <v>0.5</v>
       </c>
       <c r="S59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T59" t="s">
         <v>77</v>
       </c>
       <c r="Y59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z59">
         <v>0.5</v>
       </c>
       <c r="AA59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:28">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" t="s">
         <v>16</v>
       </c>
-      <c r="D60" t="s">
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60" t="s">
+        <v>17</v>
+      </c>
+      <c r="L60" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q60" t="s">
         <v>16</v>
-      </c>
-      <c r="I60" t="s">
-        <v>15</v>
-      </c>
-      <c r="J60">
-        <v>1</v>
-      </c>
-      <c r="K60" t="s">
-        <v>16</v>
-      </c>
-      <c r="L60" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>15</v>
       </c>
       <c r="R60">
         <v>0.5</v>
       </c>
       <c r="S60" t="s">
+        <v>17</v>
+      </c>
+      <c r="T60" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y60" t="s">
         <v>16</v>
       </c>
-      <c r="T60" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>15</v>
-      </c>
       <c r="Z60">
         <v>1</v>
       </c>
       <c r="AA60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AB60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:28">
       <c r="A61" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61" t="s">
         <v>19</v>
       </c>
-      <c r="D61" t="s">
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61" t="s">
         <v>20</v>
       </c>
-      <c r="I61" t="s">
-        <v>18</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q61" t="s">
         <v>19</v>
       </c>
-      <c r="L61" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>18</v>
-      </c>
       <c r="R61">
         <v>0</v>
       </c>
       <c r="S61" t="s">
+        <v>20</v>
+      </c>
+      <c r="T61" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y61" t="s">
         <v>19</v>
       </c>
-      <c r="T61" t="s">
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61" t="s">
         <v>20</v>
       </c>
-      <c r="Y61" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z61">
-        <v>0</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>19</v>
-      </c>
       <c r="AB61" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:28">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B62">
         <v>0.33333333333333331</v>
       </c>
       <c r="C62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" t="s">
+        <v>94</v>
+      </c>
+      <c r="I62" t="s">
         <v>24</v>
       </c>
-      <c r="D62" t="s">
-        <v>93</v>
-      </c>
-      <c r="I62" t="s">
-        <v>23</v>
-      </c>
       <c r="J62">
         <v>0.66666666666666663</v>
       </c>
       <c r="K62" t="s">
+        <v>25</v>
+      </c>
+      <c r="L62" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q62" t="s">
         <v>24</v>
       </c>
-      <c r="L62" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>23</v>
-      </c>
       <c r="R62">
         <v>0.66666666666666663</v>
       </c>
       <c r="S62" t="s">
+        <v>25</v>
+      </c>
+      <c r="T62" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y62" t="s">
         <v>24</v>
       </c>
-      <c r="T62" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>23</v>
-      </c>
       <c r="Z62">
         <v>0.66666666666666663</v>
       </c>
       <c r="AA62" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:28">
       <c r="A63" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B63">
         <v>0.75</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D63" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I63" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J63">
         <v>0.5</v>
       </c>
       <c r="K63" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L63" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="Q63" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R63">
         <v>0.5</v>
       </c>
       <c r="S63" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T63" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y63" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Z63">
         <v>0.5</v>
       </c>
       <c r="AA63" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB63" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:28">
       <c r="A64" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D64" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I64" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L64" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q64" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R64">
         <v>1</v>
       </c>
       <c r="S64" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T64" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Y64" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z64">
         <v>0</v>
       </c>
       <c r="AA64" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AB64" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:28">
       <c r="A65" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D65" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I65" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J65">
         <v>0.5</v>
       </c>
       <c r="K65" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L65" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q65" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="R65">
         <v>0</v>
       </c>
       <c r="S65" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T65" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Y65" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Z65">
         <v>0</v>
       </c>
       <c r="AA65" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AB65" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:28">
       <c r="A66" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D66" t="s">
         <v>68</v>
       </c>
       <c r="I66" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J66">
         <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L66" t="s">
         <v>68</v>
       </c>
       <c r="Q66" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="R66">
         <v>1</v>
       </c>
       <c r="S66" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T66" t="s">
         <v>68</v>
       </c>
       <c r="Y66" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Z66">
         <v>1</v>
       </c>
       <c r="AA66" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB66" t="s">
         <v>68</v>
@@ -3712,49 +3712,49 @@
     </row>
     <row r="67" spans="1:28">
       <c r="A67" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B67">
         <v>0.75</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D67" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I67" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J67">
         <v>0.5</v>
       </c>
       <c r="K67" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L67" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q67" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="R67">
         <v>0.75</v>
       </c>
       <c r="S67" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T67" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y67" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Z67">
         <v>0.75</v>
       </c>
       <c r="AA67" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB67" t="s">
         <v>69</v>
@@ -3762,199 +3762,199 @@
     </row>
     <row r="68" spans="1:28">
       <c r="A68" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B68">
         <v>0.66666666666666663</v>
       </c>
       <c r="C68" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D68" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I68" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J68">
         <v>0.66666666666666663</v>
       </c>
       <c r="K68" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L68" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q68" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="R68">
         <v>0.66666666666666663</v>
       </c>
       <c r="S68" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="T68" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Y68" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z68">
         <v>0.66666666666666663</v>
       </c>
       <c r="AA68" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AB68" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:28">
       <c r="A69" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B69">
         <v>0.8</v>
       </c>
       <c r="C69" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I69" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J69">
         <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L69" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q69" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="R69">
         <v>0.8</v>
       </c>
       <c r="S69" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="T69" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y69" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Z69">
         <v>1</v>
       </c>
       <c r="AA69" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AB69" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:28">
       <c r="A70" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B70">
         <v>0.75</v>
       </c>
       <c r="C70" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D70" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I70" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J70">
         <v>1</v>
       </c>
       <c r="K70" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q70" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="R70">
         <v>0.75</v>
       </c>
       <c r="S70" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y70" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Z70">
         <v>0.75</v>
       </c>
       <c r="AA70" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AB70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:28">
       <c r="A71" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B71">
         <v>0.33333333333333331</v>
       </c>
       <c r="C71" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D71" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I71" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J71">
         <v>0.66666666666666663</v>
       </c>
       <c r="K71" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L71" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q71" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="R71">
         <v>0.33333333333333331</v>
       </c>
       <c r="S71" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T71" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Y71" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Z71">
         <v>0.66666666666666663</v>
       </c>
       <c r="AA71" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AB71" t="s">
         <v>74</v>
@@ -3962,25 +3962,25 @@
     </row>
     <row r="72" spans="1:28">
       <c r="A72" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B72">
         <v>0.56309523809523809</v>
       </c>
       <c r="I72" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J72">
         <v>0.5714285714285714</v>
       </c>
       <c r="Q72" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="R72">
         <v>0.53333333333333333</v>
       </c>
       <c r="Y72" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Z72">
         <v>0.5357142857142857</v>
@@ -4014,7 +4014,7 @@
     </row>
     <row r="74" spans="1:28">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/result_rprecision.xlsx
+++ b/result_rprecision.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/nlp/nlp_t2m/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56461AA1-CAB9-0346-8D9D-D827A2D11DE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07B54ED-D87F-9D49-B965-26E179DB5E96}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5540" yWindow="-28340" windowWidth="25600" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1460" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resultSheet" sheetId="1" r:id="rId1"/>
@@ -374,7 +374,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +393,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -492,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -502,6 +510,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -988,7 +997,7 @@
   <dimension ref="A1:AF92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H93" sqref="H93:H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1778,7 +1787,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" t="s">
         <v>59</v>
@@ -1829,34 +1838,57 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
-      <c r="B18" t="s">
+      <c r="B18" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="9">
         <v>0.44404761904761908</v>
       </c>
-      <c r="J18" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="9">
         <v>0.44404761904761908</v>
       </c>
-      <c r="R18" t="s">
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="9">
         <v>0.44761904761904758</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AA18">
+      <c r="AA18" s="9">
         <v>0.47976190476190478</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+    </row>
+    <row r="19" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>0</v>
@@ -1883,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>0</v>
       </c>
@@ -1909,7 +1941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>112</v>
       </c>
@@ -1962,7 +1994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>111</v>
       </c>
@@ -2015,7 +2047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" t="s">
         <v>10</v>
@@ -2066,7 +2098,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" t="s">
         <v>15</v>
@@ -2117,7 +2149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" t="s">
         <v>18</v>
@@ -2168,7 +2200,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" t="s">
         <v>23</v>
@@ -2219,7 +2251,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" t="s">
         <v>28</v>
@@ -2270,7 +2302,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" t="s">
         <v>34</v>
@@ -2321,7 +2353,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" t="s">
         <v>37</v>
@@ -2372,7 +2404,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" t="s">
         <v>40</v>
@@ -2423,7 +2455,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" t="s">
         <v>44</v>
@@ -2474,7 +2506,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" t="s">
         <v>47</v>
@@ -2525,7 +2557,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" t="s">
         <v>51</v>
@@ -2576,7 +2608,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" t="s">
         <v>56</v>
@@ -2627,7 +2659,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" t="s">
         <v>59</v>
@@ -2678,34 +2710,57 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
-      <c r="B36" t="s">
+      <c r="B36" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="9">
         <v>0.48333333333333328</v>
       </c>
-      <c r="J36" t="s">
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="9">
         <v>0.52738095238095239</v>
       </c>
-      <c r="R36" t="s">
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S36">
+      <c r="S36" s="9">
         <v>0.42380952380952369</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AA36">
+      <c r="AA36" s="9">
         <v>0.50357142857142856</v>
       </c>
-    </row>
-    <row r="37" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB36" s="9"/>
+      <c r="AC36" s="9"/>
+      <c r="AD36" s="9"/>
+      <c r="AE36" s="9"/>
+      <c r="AF36" s="9"/>
+    </row>
+    <row r="37" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" t="s">
         <v>0</v>
@@ -2732,7 +2787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>0</v>
       </c>
@@ -2758,7 +2813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>112</v>
       </c>
@@ -2811,7 +2866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>113</v>
       </c>
@@ -2864,7 +2919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" t="s">
         <v>10</v>
@@ -2915,7 +2970,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" t="s">
         <v>15</v>
@@ -2966,7 +3021,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" t="s">
         <v>18</v>
@@ -3017,7 +3072,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" t="s">
         <v>23</v>
@@ -3068,7 +3123,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" t="s">
         <v>28</v>
@@ -3119,7 +3174,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" t="s">
         <v>34</v>
@@ -3170,7 +3225,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" t="s">
         <v>37</v>
@@ -3221,7 +3276,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="B48" t="s">
         <v>40</v>
@@ -3272,7 +3327,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" t="s">
         <v>44</v>
@@ -3323,7 +3378,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" t="s">
         <v>47</v>
@@ -3374,7 +3429,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" t="s">
         <v>51</v>
@@ -3425,7 +3480,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" t="s">
         <v>56</v>
@@ -3476,7 +3531,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" t="s">
         <v>59</v>
@@ -3527,34 +3582,57 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
-      <c r="B54" t="s">
+      <c r="B54" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="9">
         <v>0.45238095238095238</v>
       </c>
-      <c r="J54" t="s">
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="9">
         <v>0.5357142857142857</v>
       </c>
-      <c r="R54" t="s">
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S54">
+      <c r="S54" s="9">
         <v>0.43809523809523798</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="9"/>
+      <c r="Y54" s="9"/>
+      <c r="Z54" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AA54">
+      <c r="AA54" s="9">
         <v>0.5095238095238096</v>
       </c>
-    </row>
-    <row r="55" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB54" s="9"/>
+      <c r="AC54" s="9"/>
+      <c r="AD54" s="9"/>
+      <c r="AE54" s="9"/>
+      <c r="AF54" s="9"/>
+    </row>
+    <row r="55" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" t="s">
         <v>0</v>
@@ -3581,7 +3659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:29" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>0</v>
       </c>
@@ -3607,7 +3685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:29" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>112</v>
       </c>
@@ -3660,7 +3738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>114</v>
       </c>
@@ -3713,7 +3791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" t="s">
         <v>10</v>
@@ -3764,7 +3842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="B60" t="s">
         <v>15</v>
@@ -3815,7 +3893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="B61" t="s">
         <v>18</v>
@@ -3866,7 +3944,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="B62" t="s">
         <v>23</v>
@@ -3917,7 +3995,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" t="s">
         <v>28</v>
@@ -3968,7 +4046,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" t="s">
         <v>34</v>
@@ -4019,7 +4097,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" t="s">
         <v>37</v>
@@ -4070,7 +4148,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" t="s">
         <v>40</v>
@@ -4121,7 +4199,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" t="s">
         <v>44</v>
@@ -4172,7 +4250,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" t="s">
         <v>47</v>
@@ -4223,7 +4301,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" t="s">
         <v>51</v>
@@ -4274,7 +4352,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" t="s">
         <v>56</v>
@@ -4325,7 +4403,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" t="s">
         <v>59</v>
@@ -4376,34 +4454,57 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
-      <c r="B72" t="s">
+      <c r="B72" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="9">
         <v>0.56309523809523809</v>
       </c>
-      <c r="J72" t="s">
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="9">
         <v>0.5714285714285714</v>
       </c>
-      <c r="R72" t="s">
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S72">
+      <c r="S72" s="9">
         <v>0.53333333333333333</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="T72" s="9"/>
+      <c r="U72" s="9"/>
+      <c r="V72" s="9"/>
+      <c r="W72" s="9"/>
+      <c r="X72" s="9"/>
+      <c r="Y72" s="9"/>
+      <c r="Z72" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AA72">
+      <c r="AA72" s="9">
         <v>0.5357142857142857</v>
       </c>
-    </row>
-    <row r="73" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB72" s="9"/>
+      <c r="AC72" s="9"/>
+      <c r="AD72" s="9"/>
+      <c r="AE72" s="9"/>
+      <c r="AF72" s="9"/>
+    </row>
+    <row r="73" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" t="s">
         <v>0</v>
@@ -4430,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:29" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>0</v>
       </c>
@@ -4456,7 +4557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:29" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:32" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>112</v>
       </c>
@@ -4509,7 +4610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>115</v>
       </c>
@@ -4562,7 +4663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" t="s">
         <v>10</v>
@@ -4613,7 +4714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" t="s">
         <v>15</v>
@@ -4664,7 +4765,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" t="s">
         <v>18</v>
@@ -4715,7 +4816,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" t="s">
         <v>23</v>
@@ -4766,7 +4867,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" t="s">
         <v>28</v>
@@ -4817,7 +4918,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="B82" t="s">
         <v>34</v>
@@ -4868,7 +4969,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" t="s">
         <v>37</v>
@@ -4919,7 +5020,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" t="s">
         <v>40</v>
@@ -4970,7 +5071,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" t="s">
         <v>44</v>
@@ -5021,7 +5122,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" t="s">
         <v>47</v>
@@ -5072,7 +5173,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" t="s">
         <v>51</v>
@@ -5123,7 +5224,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" t="s">
         <v>56</v>
@@ -5174,7 +5275,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="B89" t="s">
         <v>59</v>
@@ -5225,34 +5326,57 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
-      <c r="B90" t="s">
+      <c r="B90" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="9">
         <v>0.47976190476190472</v>
       </c>
-      <c r="J90" t="s">
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="9">
         <v>0.5714285714285714</v>
       </c>
-      <c r="R90" t="s">
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="9"/>
+      <c r="P90" s="9"/>
+      <c r="Q90" s="9"/>
+      <c r="R90" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S90">
+      <c r="S90" s="9">
         <v>0.5892857142857143</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="T90" s="9"/>
+      <c r="U90" s="9"/>
+      <c r="V90" s="9"/>
+      <c r="W90" s="9"/>
+      <c r="X90" s="9"/>
+      <c r="Y90" s="9"/>
+      <c r="Z90" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AA90">
+      <c r="AA90" s="9">
         <v>0.5714285714285714</v>
       </c>
-    </row>
-    <row r="91" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB90" s="9"/>
+      <c r="AC90" s="9"/>
+      <c r="AD90" s="9"/>
+      <c r="AE90" s="9"/>
+      <c r="AF90" s="9"/>
+    </row>
+    <row r="91" spans="1:32" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" t="s">
         <v>0</v>
@@ -5279,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:29" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:32" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/result_rprecision.xlsx
+++ b/result_rprecision.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/nlp/nlp_t2m/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07B54ED-D87F-9D49-B965-26E179DB5E96}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8812FC7-7FB4-7C4D-AD98-A29E0A9FB5CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1460" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="116">
   <si>
     <t>#########</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Hamming Loss</t>
-  </si>
-  <si>
     <t>Actual Genre</t>
   </si>
   <si>
@@ -368,13 +365,16 @@
   </si>
   <si>
     <t>GenreVectorSize : 700</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,6 +401,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -500,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -511,6 +519,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -996,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93:H94"/>
+    <sheetView tabSelected="1" topLeftCell="O49" zoomScale="172" workbookViewId="0">
+      <selection activeCell="V56" sqref="V56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1007,7 +1016,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="77" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1016,7 +1025,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="3"/>
       <c r="J1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -1025,7 +1034,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="3"/>
       <c r="R1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
@@ -1034,7 +1043,7 @@
       <c r="W1" s="2"/>
       <c r="X1" s="3"/>
       <c r="Z1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
@@ -1071,777 +1080,777 @@
     </row>
     <row r="3" spans="1:32" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
       </c>
       <c r="J3" t="s">
         <v>2</v>
       </c>
       <c r="K3" t="s">
+        <v>115</v>
+      </c>
+      <c r="L3" t="s">
         <v>3</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>4</v>
-      </c>
-      <c r="M3" t="s">
-        <v>5</v>
       </c>
       <c r="R3" t="s">
         <v>2</v>
       </c>
       <c r="S3" t="s">
+        <v>115</v>
+      </c>
+      <c r="T3" t="s">
         <v>3</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>4</v>
-      </c>
-      <c r="U3" t="s">
-        <v>5</v>
       </c>
       <c r="Z3" t="s">
         <v>2</v>
       </c>
       <c r="AA3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB3" t="s">
         <v>3</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>4</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4" t="s">
+        <v>6</v>
+      </c>
+      <c r="U4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC4" t="s">
         <v>8</v>
-      </c>
-      <c r="J4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" t="s">
-        <v>8</v>
-      </c>
-      <c r="R4" t="s">
-        <v>6</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>0.75</v>
       </c>
       <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
       <c r="J5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K5">
         <v>0.5</v>
       </c>
       <c r="L5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S5">
         <v>0.75</v>
       </c>
       <c r="T5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA5">
         <v>0.5</v>
       </c>
       <c r="AB5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>0.5</v>
       </c>
       <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
       <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
         <v>15</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>16</v>
-      </c>
       <c r="M6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S6">
         <v>0.5</v>
       </c>
       <c r="T6" t="s">
+        <v>15</v>
+      </c>
+      <c r="U6" t="s">
         <v>16</v>
       </c>
-      <c r="U6" t="s">
-        <v>17</v>
-      </c>
       <c r="Z6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6" t="s">
         <v>15</v>
       </c>
-      <c r="AA6">
-        <v>1</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>16</v>
-      </c>
       <c r="AC6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" t="s">
         <v>20</v>
       </c>
-      <c r="J7" t="s">
+      <c r="R7" t="s">
+        <v>17</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
         <v>18</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="U7" t="s">
         <v>21</v>
       </c>
-      <c r="R7" t="s">
+      <c r="Z7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="s">
         <v>18</v>
       </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7" t="s">
-        <v>19</v>
-      </c>
-      <c r="U7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>19</v>
-      </c>
       <c r="AC7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>0.66666666666666663</v>
       </c>
       <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8">
         <v>0.66666666666666663</v>
       </c>
       <c r="L8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S8">
         <v>0.66666666666666663</v>
       </c>
       <c r="T8" t="s">
+        <v>23</v>
+      </c>
+      <c r="U8" t="s">
         <v>24</v>
       </c>
-      <c r="U8" t="s">
-        <v>25</v>
-      </c>
       <c r="Z8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA8">
         <v>0.66666666666666663</v>
       </c>
       <c r="AB8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>0.25</v>
       </c>
       <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
         <v>29</v>
       </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
       <c r="J9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9">
         <v>0.25</v>
       </c>
       <c r="L9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S9">
         <v>0.5</v>
       </c>
       <c r="T9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA9">
         <v>0.5</v>
       </c>
       <c r="AB9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
         <v>34</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>35</v>
       </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
       <c r="J10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
         <v>34</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>35</v>
       </c>
-      <c r="M10" t="s">
-        <v>36</v>
-      </c>
       <c r="R10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10" t="s">
         <v>34</v>
       </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>35</v>
       </c>
-      <c r="U10" t="s">
-        <v>36</v>
-      </c>
       <c r="Z10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="s">
         <v>34</v>
       </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>35</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
         <v>37</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>38</v>
       </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
       <c r="J11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
         <v>37</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>38</v>
       </c>
-      <c r="M11" t="s">
-        <v>39</v>
-      </c>
       <c r="R11" t="s">
+        <v>36</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
         <v>37</v>
       </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>38</v>
       </c>
-      <c r="U11" t="s">
-        <v>39</v>
-      </c>
       <c r="Z11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="s">
         <v>37</v>
       </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>38</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12">
         <v>0.66666666666666663</v>
       </c>
       <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
         <v>41</v>
       </c>
-      <c r="E12" t="s">
-        <v>42</v>
-      </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K12">
         <v>0.66666666666666663</v>
       </c>
       <c r="L12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" t="s">
         <v>41</v>
       </c>
-      <c r="M12" t="s">
-        <v>42</v>
-      </c>
       <c r="R12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S12">
         <v>0.66666666666666663</v>
       </c>
       <c r="T12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA12">
         <v>0.66666666666666663</v>
       </c>
       <c r="AB12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC12" t="s">
         <v>41</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>0.5</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K13">
         <v>0.5</v>
       </c>
       <c r="L13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S13">
         <v>0.5</v>
       </c>
       <c r="T13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA13">
         <v>0.5</v>
       </c>
       <c r="AB13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14">
         <v>0.66666666666666663</v>
       </c>
       <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
         <v>48</v>
       </c>
-      <c r="E14" t="s">
-        <v>49</v>
-      </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K14">
         <v>0.66666666666666663</v>
       </c>
       <c r="L14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S14">
         <v>0.66666666666666663</v>
       </c>
       <c r="T14" t="s">
+        <v>47</v>
+      </c>
+      <c r="U14" t="s">
         <v>48</v>
       </c>
-      <c r="U14" t="s">
-        <v>49</v>
-      </c>
       <c r="Z14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA14">
         <v>0.66666666666666663</v>
       </c>
       <c r="AB14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AC14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15">
         <v>0.8</v>
       </c>
       <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
         <v>52</v>
       </c>
-      <c r="E15" t="s">
-        <v>53</v>
-      </c>
       <c r="J15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K15">
         <v>0.8</v>
       </c>
       <c r="L15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S15">
         <v>0.6</v>
       </c>
       <c r="T15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA15">
         <v>0.8</v>
       </c>
       <c r="AB15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16">
         <v>0.75</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K16">
         <v>0.5</v>
       </c>
       <c r="L16" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" t="s">
         <v>57</v>
       </c>
-      <c r="M16" t="s">
-        <v>58</v>
-      </c>
       <c r="R16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S16">
         <v>0.75</v>
       </c>
       <c r="T16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA16">
         <v>0.75</v>
       </c>
       <c r="AB16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17">
         <v>0.66666666666666663</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K17">
         <v>0.66666666666666663</v>
       </c>
       <c r="L17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S17">
         <v>0.66666666666666663</v>
       </c>
       <c r="T17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA17">
         <v>0.66666666666666663</v>
       </c>
       <c r="AB17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AC17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="9">
         <v>0.44404761904761908</v>
@@ -1853,7 +1862,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K18" s="9">
         <v>0.44404761904761908</v>
@@ -1865,7 +1874,7 @@
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S18" s="9">
         <v>0.44761904761904758</v>
@@ -1877,7 +1886,7 @@
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA18" s="9">
         <v>0.47976190476190478</v>
@@ -1943,777 +1952,777 @@
     </row>
     <row r="21" spans="1:32" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
       </c>
       <c r="C21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" t="s">
         <v>3</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>4</v>
-      </c>
-      <c r="E21" t="s">
-        <v>5</v>
       </c>
       <c r="J21" t="s">
         <v>2</v>
       </c>
       <c r="K21" t="s">
+        <v>115</v>
+      </c>
+      <c r="L21" t="s">
         <v>3</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>4</v>
-      </c>
-      <c r="M21" t="s">
-        <v>5</v>
       </c>
       <c r="R21" t="s">
         <v>2</v>
       </c>
       <c r="S21" t="s">
+        <v>115</v>
+      </c>
+      <c r="T21" t="s">
         <v>3</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>4</v>
-      </c>
-      <c r="U21" t="s">
-        <v>5</v>
       </c>
       <c r="Z21" t="s">
         <v>2</v>
       </c>
       <c r="AA21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB21" t="s">
         <v>3</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AC21" t="s">
         <v>4</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>7</v>
       </c>
-      <c r="E22" t="s">
+      <c r="J22" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" t="s">
         <v>8</v>
       </c>
-      <c r="J22" t="s">
+      <c r="R22" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22" t="s">
         <v>6</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="U22" t="s">
         <v>7</v>
       </c>
-      <c r="M22" t="s">
-        <v>9</v>
-      </c>
-      <c r="R22" t="s">
+      <c r="Z22" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="s">
         <v>6</v>
       </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22" t="s">
-        <v>7</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="AC22" t="s">
         <v>8</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>0.75</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K23">
         <v>0.75</v>
       </c>
       <c r="L23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S23">
         <v>0.75</v>
       </c>
       <c r="T23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA23">
         <v>0.75</v>
       </c>
       <c r="AB23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
         <v>15</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
         <v>15</v>
       </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24" t="s">
-        <v>16</v>
-      </c>
       <c r="M24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S24">
         <v>0.5</v>
       </c>
       <c r="T24" t="s">
+        <v>15</v>
+      </c>
+      <c r="U24" t="s">
         <v>16</v>
       </c>
-      <c r="U24" t="s">
-        <v>17</v>
-      </c>
       <c r="Z24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24" t="s">
         <v>15</v>
       </c>
-      <c r="AA24">
-        <v>1</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>16</v>
-      </c>
       <c r="AC24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
         <v>18</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>19</v>
-      </c>
       <c r="E25" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" t="s">
         <v>64</v>
       </c>
-      <c r="J25" t="s">
+      <c r="R25" t="s">
+        <v>17</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25" t="s">
         <v>18</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25" t="s">
-        <v>19</v>
-      </c>
-      <c r="M25" t="s">
-        <v>65</v>
-      </c>
-      <c r="R25" t="s">
+      <c r="U25" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="s">
         <v>18</v>
       </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25" t="s">
-        <v>19</v>
-      </c>
-      <c r="U25" t="s">
+      <c r="AC25" t="s">
         <v>64</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26">
         <v>0.66666666666666663</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K26">
         <v>0.66666666666666663</v>
       </c>
       <c r="L26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S26">
         <v>0.66666666666666663</v>
       </c>
       <c r="T26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA26">
         <v>0.66666666666666663</v>
       </c>
       <c r="AB26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <v>0.5</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K27">
         <v>0.5</v>
       </c>
       <c r="L27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S27">
         <v>0.5</v>
       </c>
       <c r="T27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA27">
         <v>0.5</v>
       </c>
       <c r="AB27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
         <v>34</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>35</v>
       </c>
-      <c r="E28" t="s">
-        <v>36</v>
-      </c>
       <c r="J28" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
         <v>34</v>
       </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>35</v>
       </c>
-      <c r="M28" t="s">
-        <v>36</v>
-      </c>
       <c r="R28" t="s">
+        <v>33</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28" t="s">
         <v>34</v>
       </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
         <v>35</v>
       </c>
-      <c r="U28" t="s">
-        <v>36</v>
-      </c>
       <c r="Z28" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="s">
         <v>34</v>
       </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="s">
+      <c r="AC28" t="s">
         <v>35</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
         <v>37</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>38</v>
       </c>
-      <c r="E29" t="s">
-        <v>39</v>
-      </c>
       <c r="J29" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
         <v>37</v>
       </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>38</v>
       </c>
-      <c r="M29" t="s">
-        <v>39</v>
-      </c>
       <c r="R29" t="s">
+        <v>36</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29" t="s">
         <v>37</v>
       </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>38</v>
       </c>
-      <c r="U29" t="s">
-        <v>39</v>
-      </c>
       <c r="Z29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="s">
         <v>37</v>
       </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-      <c r="AB29" t="s">
+      <c r="AC29" t="s">
         <v>38</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30">
         <v>0.66666666666666663</v>
       </c>
       <c r="D30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30" t="s">
         <v>40</v>
       </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30" t="s">
-        <v>41</v>
-      </c>
       <c r="M30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S30">
         <v>0.66666666666666663</v>
       </c>
       <c r="T30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA30">
         <v>0.66666666666666663</v>
       </c>
       <c r="AB30" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC30" t="s">
         <v>41</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31">
         <v>0.75</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31">
         <v>0.5</v>
       </c>
       <c r="L31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S31">
         <v>0.75</v>
       </c>
       <c r="T31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA31">
         <v>0.5</v>
       </c>
       <c r="AB31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32">
         <v>0.66666666666666663</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E32" t="s">
+        <v>68</v>
+      </c>
+      <c r="J32" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32" t="s">
+        <v>47</v>
+      </c>
+      <c r="M32" t="s">
         <v>69</v>
       </c>
-      <c r="J32" t="s">
-        <v>47</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32" t="s">
-        <v>48</v>
-      </c>
-      <c r="M32" t="s">
-        <v>70</v>
-      </c>
       <c r="R32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S32">
         <v>0.66666666666666663</v>
       </c>
       <c r="T32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U32" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA32">
+        <v>1</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC32" t="s">
         <v>69</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA32">
-        <v>1</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33">
         <v>0.6</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K33">
         <v>0.8</v>
       </c>
       <c r="L33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S33">
         <v>0.6</v>
       </c>
       <c r="T33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA33">
         <v>0.8</v>
       </c>
       <c r="AB33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34">
         <v>0.5</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K34">
         <v>0.5</v>
       </c>
       <c r="L34" t="s">
+        <v>56</v>
+      </c>
+      <c r="M34" t="s">
         <v>57</v>
       </c>
-      <c r="M34" t="s">
-        <v>58</v>
-      </c>
       <c r="R34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S34">
         <v>0.5</v>
       </c>
       <c r="T34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA34">
         <v>0.5</v>
       </c>
       <c r="AB34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC34" t="s">
         <v>57</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35">
         <v>0.66666666666666663</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K35">
         <v>0.66666666666666663</v>
       </c>
       <c r="L35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S35">
         <v>0.33333333333333331</v>
       </c>
       <c r="T35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA35">
         <v>0.66666666666666663</v>
       </c>
       <c r="AB35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AC35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="9">
         <v>0.48333333333333328</v>
@@ -2725,7 +2734,7 @@
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K36" s="9">
         <v>0.52738095238095239</v>
@@ -2737,7 +2746,7 @@
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
       <c r="R36" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S36" s="9">
         <v>0.42380952380952369</v>
@@ -2749,7 +2758,7 @@
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
       <c r="Z36" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA36" s="9">
         <v>0.50357142857142856</v>
@@ -2815,777 +2824,777 @@
     </row>
     <row r="39" spans="1:32" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B39" t="s">
         <v>2</v>
       </c>
       <c r="C39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" t="s">
         <v>3</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>4</v>
-      </c>
-      <c r="E39" t="s">
-        <v>5</v>
       </c>
       <c r="J39" t="s">
         <v>2</v>
       </c>
       <c r="K39" t="s">
+        <v>115</v>
+      </c>
+      <c r="L39" t="s">
         <v>3</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>4</v>
-      </c>
-      <c r="M39" t="s">
-        <v>5</v>
       </c>
       <c r="R39" t="s">
         <v>2</v>
       </c>
       <c r="S39" t="s">
+        <v>115</v>
+      </c>
+      <c r="T39" t="s">
         <v>3</v>
       </c>
-      <c r="T39" t="s">
+      <c r="U39" t="s">
         <v>4</v>
-      </c>
-      <c r="U39" t="s">
-        <v>5</v>
       </c>
       <c r="Z39" t="s">
         <v>2</v>
       </c>
       <c r="AA39" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB39" t="s">
         <v>3</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AC39" t="s">
         <v>4</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
         <v>6</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>7</v>
       </c>
-      <c r="E40" t="s">
-        <v>8</v>
-      </c>
       <c r="J40" t="s">
+        <v>5</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40" t="s">
         <v>6</v>
       </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>7</v>
       </c>
-      <c r="M40" t="s">
-        <v>8</v>
-      </c>
       <c r="R40" t="s">
+        <v>5</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40" t="s">
         <v>6</v>
       </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-      <c r="T40" t="s">
+      <c r="U40" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC40" t="s">
         <v>7</v>
-      </c>
-      <c r="U40" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA40">
-        <v>0</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41">
         <v>0.5</v>
       </c>
       <c r="D41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K41">
         <v>0.75</v>
       </c>
       <c r="L41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S41">
         <v>0.75</v>
       </c>
       <c r="T41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA41">
         <v>0.75</v>
       </c>
       <c r="AB41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42">
         <v>0.5</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E42" t="s">
+        <v>77</v>
+      </c>
+      <c r="J42" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42" t="s">
+        <v>15</v>
+      </c>
+      <c r="M42" t="s">
+        <v>15</v>
+      </c>
+      <c r="R42" t="s">
+        <v>14</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42" t="s">
+        <v>15</v>
+      </c>
+      <c r="U42" t="s">
         <v>78</v>
       </c>
-      <c r="J42" t="s">
-        <v>15</v>
-      </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-      <c r="L42" t="s">
-        <v>16</v>
-      </c>
-      <c r="M42" t="s">
-        <v>16</v>
-      </c>
-      <c r="R42" t="s">
-        <v>15</v>
-      </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42" t="s">
-        <v>16</v>
-      </c>
-      <c r="U42" t="s">
-        <v>79</v>
-      </c>
       <c r="Z42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA42">
         <v>0.5</v>
       </c>
       <c r="AB42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
         <v>18</v>
       </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>19</v>
       </c>
-      <c r="E43" t="s">
-        <v>20</v>
-      </c>
       <c r="J43" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43" t="s">
         <v>18</v>
       </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43" t="s">
-        <v>19</v>
-      </c>
       <c r="M43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S43">
         <v>0.5</v>
       </c>
       <c r="T43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z43" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="s">
         <v>18</v>
       </c>
-      <c r="AA43">
-        <v>0</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>19</v>
-      </c>
       <c r="AC43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C44">
         <v>0.66666666666666663</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K44">
         <v>0.66666666666666663</v>
       </c>
       <c r="L44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S44">
         <v>0.66666666666666663</v>
       </c>
       <c r="T44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z44" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA44">
+        <v>1</v>
+      </c>
+      <c r="AB44" t="s">
         <v>23</v>
       </c>
-      <c r="AA44">
-        <v>1</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>24</v>
-      </c>
       <c r="AC44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C45">
         <v>0.5</v>
       </c>
       <c r="D45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K45">
         <v>0.5</v>
       </c>
       <c r="L45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S45">
         <v>0.25</v>
       </c>
       <c r="T45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA45">
         <v>0.5</v>
       </c>
       <c r="AB45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
         <v>34</v>
       </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>35</v>
       </c>
-      <c r="E46" t="s">
-        <v>36</v>
-      </c>
       <c r="J46" t="s">
+        <v>33</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46" t="s">
         <v>34</v>
       </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>35</v>
       </c>
-      <c r="M46" t="s">
-        <v>36</v>
-      </c>
       <c r="R46" t="s">
+        <v>33</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46" t="s">
         <v>34</v>
       </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
-      <c r="T46" t="s">
+      <c r="U46" t="s">
         <v>35</v>
       </c>
-      <c r="U46" t="s">
-        <v>36</v>
-      </c>
       <c r="Z46" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46" t="s">
         <v>34</v>
       </c>
-      <c r="AA46">
-        <v>0</v>
-      </c>
-      <c r="AB46" t="s">
+      <c r="AC46" t="s">
         <v>35</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
         <v>37</v>
       </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>38</v>
       </c>
-      <c r="E47" t="s">
-        <v>39</v>
-      </c>
       <c r="J47" t="s">
+        <v>36</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47" t="s">
         <v>37</v>
       </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>38</v>
       </c>
-      <c r="M47" t="s">
-        <v>39</v>
-      </c>
       <c r="R47" t="s">
+        <v>36</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47" t="s">
         <v>37</v>
       </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-      <c r="T47" t="s">
+      <c r="U47" t="s">
         <v>38</v>
       </c>
-      <c r="U47" t="s">
-        <v>39</v>
-      </c>
       <c r="Z47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="s">
         <v>37</v>
       </c>
-      <c r="AA47">
-        <v>0</v>
-      </c>
-      <c r="AB47" t="s">
+      <c r="AC47" t="s">
         <v>38</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="B48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
         <v>40</v>
       </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
-        <v>41</v>
-      </c>
       <c r="E48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J48" t="s">
+        <v>39</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48" t="s">
         <v>40</v>
       </c>
-      <c r="K48">
-        <v>1</v>
-      </c>
-      <c r="L48" t="s">
-        <v>41</v>
-      </c>
       <c r="M48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R48" t="s">
+        <v>39</v>
+      </c>
+      <c r="S48">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s">
         <v>40</v>
       </c>
-      <c r="S48">
-        <v>1</v>
-      </c>
-      <c r="T48" t="s">
-        <v>41</v>
-      </c>
       <c r="U48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z48" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA48">
+        <v>1</v>
+      </c>
+      <c r="AB48" t="s">
         <v>40</v>
       </c>
-      <c r="AA48">
-        <v>1</v>
-      </c>
-      <c r="AB48" t="s">
-        <v>41</v>
-      </c>
       <c r="AC48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C49">
         <v>0.75</v>
       </c>
       <c r="D49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K49">
         <v>0.5</v>
       </c>
       <c r="L49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S49">
         <v>0.75</v>
       </c>
       <c r="T49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA49">
         <v>0.5</v>
       </c>
       <c r="AB49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C50">
         <v>0.33333333333333331</v>
       </c>
       <c r="D50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K50">
         <v>0.66666666666666663</v>
       </c>
       <c r="L50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S50">
         <v>0.33333333333333331</v>
       </c>
       <c r="T50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Z50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA50">
         <v>0.66666666666666663</v>
       </c>
       <c r="AB50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AC50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
         <v>51</v>
       </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51" t="s">
-        <v>52</v>
-      </c>
       <c r="E51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J51" t="s">
+        <v>50</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51" t="s">
         <v>51</v>
       </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
-      <c r="L51" t="s">
-        <v>52</v>
-      </c>
       <c r="M51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S51">
         <v>0.8</v>
       </c>
       <c r="T51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Z51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA51">
         <v>0.8</v>
       </c>
       <c r="AB51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C52">
         <v>0.75</v>
       </c>
       <c r="D52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K52">
         <v>0.75</v>
       </c>
       <c r="L52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S52">
         <v>0.75</v>
       </c>
       <c r="T52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA52">
         <v>0.75</v>
       </c>
       <c r="AB52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53">
         <v>0.33333333333333331</v>
       </c>
       <c r="D53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K53">
         <v>0.66666666666666663</v>
       </c>
       <c r="L53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S53">
         <v>0.33333333333333331</v>
       </c>
       <c r="T53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA53">
         <v>0.66666666666666663</v>
       </c>
       <c r="AB53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AC53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="B54" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C54" s="9">
         <v>0.45238095238095238</v>
@@ -3597,7 +3606,7 @@
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K54" s="9">
         <v>0.5357142857142857</v>
@@ -3609,9 +3618,9 @@
       <c r="P54" s="9"/>
       <c r="Q54" s="9"/>
       <c r="R54" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="S54" s="9">
+        <v>60</v>
+      </c>
+      <c r="S54" s="10">
         <v>0.43809523809523798</v>
       </c>
       <c r="T54" s="9"/>
@@ -3621,9 +3630,9 @@
       <c r="X54" s="9"/>
       <c r="Y54" s="9"/>
       <c r="Z54" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA54" s="9">
+        <v>60</v>
+      </c>
+      <c r="AA54" s="10">
         <v>0.5095238095238096</v>
       </c>
       <c r="AB54" s="9"/>
@@ -3687,777 +3696,777 @@
     </row>
     <row r="57" spans="1:32" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B57" t="s">
         <v>2</v>
       </c>
       <c r="C57" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" t="s">
         <v>3</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>4</v>
-      </c>
-      <c r="E57" t="s">
-        <v>5</v>
       </c>
       <c r="J57" t="s">
         <v>2</v>
       </c>
       <c r="K57" t="s">
+        <v>115</v>
+      </c>
+      <c r="L57" t="s">
         <v>3</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>4</v>
-      </c>
-      <c r="M57" t="s">
-        <v>5</v>
       </c>
       <c r="R57" t="s">
         <v>2</v>
       </c>
       <c r="S57" t="s">
+        <v>115</v>
+      </c>
+      <c r="T57" t="s">
         <v>3</v>
       </c>
-      <c r="T57" t="s">
+      <c r="U57" t="s">
         <v>4</v>
-      </c>
-      <c r="U57" t="s">
-        <v>5</v>
       </c>
       <c r="Z57" t="s">
         <v>2</v>
       </c>
       <c r="AA57" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB57" t="s">
         <v>3</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="AC57" t="s">
         <v>4</v>
-      </c>
-      <c r="AC57" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
         <v>6</v>
       </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
+        <v>80</v>
+      </c>
+      <c r="J58" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58" t="s">
+        <v>6</v>
+      </c>
+      <c r="M58" t="s">
         <v>7</v>
       </c>
-      <c r="E58" t="s">
-        <v>81</v>
-      </c>
-      <c r="J58" t="s">
+      <c r="R58" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58" t="s">
         <v>6</v>
       </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58" t="s">
+      <c r="U58" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC58" t="s">
         <v>7</v>
-      </c>
-      <c r="M58" t="s">
-        <v>8</v>
-      </c>
-      <c r="R58" t="s">
-        <v>6</v>
-      </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
-      <c r="T58" t="s">
-        <v>7</v>
-      </c>
-      <c r="U58" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z58" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA58">
-        <v>0</v>
-      </c>
-      <c r="AB58" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC58" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C59">
         <v>0.5</v>
       </c>
       <c r="D59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K59">
         <v>0.5</v>
       </c>
       <c r="L59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S59">
         <v>0.5</v>
       </c>
       <c r="T59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA59">
         <v>0.5</v>
       </c>
       <c r="AB59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
         <v>15</v>
       </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60" t="s">
-        <v>16</v>
-      </c>
       <c r="E60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J60" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60" t="s">
         <v>15</v>
       </c>
-      <c r="K60">
-        <v>1</v>
-      </c>
-      <c r="L60" t="s">
-        <v>16</v>
-      </c>
       <c r="M60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S60">
         <v>0.5</v>
       </c>
       <c r="T60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z60" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA60">
+        <v>1</v>
+      </c>
+      <c r="AB60" t="s">
         <v>15</v>
       </c>
-      <c r="AA60">
-        <v>1</v>
-      </c>
-      <c r="AB60" t="s">
-        <v>16</v>
-      </c>
       <c r="AC60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="B61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
         <v>18</v>
       </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>19</v>
       </c>
-      <c r="E61" t="s">
-        <v>20</v>
-      </c>
       <c r="J61" t="s">
+        <v>17</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61" t="s">
         <v>18</v>
       </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
+        <v>63</v>
+      </c>
+      <c r="R61" t="s">
+        <v>17</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61" t="s">
+        <v>18</v>
+      </c>
+      <c r="U61" t="s">
         <v>19</v>
       </c>
-      <c r="M61" t="s">
-        <v>64</v>
-      </c>
-      <c r="R61" t="s">
+      <c r="Z61" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61" t="s">
         <v>18</v>
       </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-      <c r="T61" t="s">
-        <v>19</v>
-      </c>
-      <c r="U61" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA61">
-        <v>0</v>
-      </c>
-      <c r="AB61" t="s">
-        <v>19</v>
-      </c>
       <c r="AC61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C62">
         <v>0.33333333333333331</v>
       </c>
       <c r="D62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K62">
         <v>0.66666666666666663</v>
       </c>
       <c r="L62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S62">
         <v>0.66666666666666663</v>
       </c>
       <c r="T62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Z62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA62">
         <v>0.66666666666666663</v>
       </c>
       <c r="AB62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C63">
         <v>0.75</v>
       </c>
       <c r="D63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K63">
         <v>0.5</v>
       </c>
       <c r="L63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S63">
         <v>0.5</v>
       </c>
       <c r="T63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U63" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA63">
         <v>0.5</v>
       </c>
       <c r="AB63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
         <v>34</v>
       </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
+        <v>34</v>
+      </c>
+      <c r="J64" t="s">
+        <v>33</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64" t="s">
+        <v>34</v>
+      </c>
+      <c r="M64" t="s">
         <v>35</v>
       </c>
-      <c r="E64" t="s">
+      <c r="R64" t="s">
+        <v>33</v>
+      </c>
+      <c r="S64">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s">
+        <v>34</v>
+      </c>
+      <c r="U64" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC64" t="s">
         <v>35</v>
-      </c>
-      <c r="J64" t="s">
-        <v>34</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64" t="s">
-        <v>35</v>
-      </c>
-      <c r="M64" t="s">
-        <v>36</v>
-      </c>
-      <c r="R64" t="s">
-        <v>34</v>
-      </c>
-      <c r="S64">
-        <v>1</v>
-      </c>
-      <c r="T64" t="s">
-        <v>35</v>
-      </c>
-      <c r="U64" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z64" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA64">
-        <v>0</v>
-      </c>
-      <c r="AB64" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC64" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
         <v>37</v>
       </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>38</v>
       </c>
-      <c r="E65" t="s">
-        <v>39</v>
-      </c>
       <c r="J65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K65">
         <v>0.5</v>
       </c>
       <c r="L65" t="s">
+        <v>37</v>
+      </c>
+      <c r="M65" t="s">
+        <v>95</v>
+      </c>
+      <c r="R65" t="s">
+        <v>36</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65" t="s">
+        <v>37</v>
+      </c>
+      <c r="U65" t="s">
         <v>38</v>
       </c>
-      <c r="M65" t="s">
-        <v>96</v>
-      </c>
-      <c r="R65" t="s">
+      <c r="Z65" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65" t="s">
         <v>37</v>
       </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
-      <c r="T65" t="s">
+      <c r="AC65" t="s">
         <v>38</v>
-      </c>
-      <c r="U65" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z65" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA65">
-        <v>0</v>
-      </c>
-      <c r="AB65" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC65" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
         <v>40</v>
       </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66" t="s">
-        <v>41</v>
-      </c>
       <c r="E66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J66" t="s">
+        <v>39</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66" t="s">
         <v>40</v>
       </c>
-      <c r="K66">
-        <v>1</v>
-      </c>
-      <c r="L66" t="s">
-        <v>41</v>
-      </c>
       <c r="M66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R66" t="s">
+        <v>39</v>
+      </c>
+      <c r="S66">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s">
         <v>40</v>
       </c>
-      <c r="S66">
-        <v>1</v>
-      </c>
-      <c r="T66" t="s">
-        <v>41</v>
-      </c>
       <c r="U66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z66" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA66">
+        <v>1</v>
+      </c>
+      <c r="AB66" t="s">
         <v>40</v>
       </c>
-      <c r="AA66">
-        <v>1</v>
-      </c>
-      <c r="AB66" t="s">
-        <v>41</v>
-      </c>
       <c r="AC66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C67">
         <v>0.75</v>
       </c>
       <c r="D67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K67">
         <v>0.5</v>
       </c>
       <c r="L67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S67">
         <v>0.75</v>
       </c>
       <c r="T67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA67">
         <v>0.75</v>
       </c>
       <c r="AB67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C68">
         <v>0.66666666666666663</v>
       </c>
       <c r="D68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K68">
         <v>0.66666666666666663</v>
       </c>
       <c r="L68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S68">
         <v>0.66666666666666663</v>
       </c>
       <c r="T68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA68">
         <v>0.66666666666666663</v>
       </c>
       <c r="AB68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AC68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C69">
         <v>0.8</v>
       </c>
       <c r="D69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E69" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J69" t="s">
+        <v>50</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69" t="s">
         <v>51</v>
       </c>
-      <c r="K69">
-        <v>1</v>
-      </c>
-      <c r="L69" t="s">
-        <v>52</v>
-      </c>
       <c r="M69" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S69">
         <v>0.8</v>
       </c>
       <c r="T69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z69" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA69">
+        <v>1</v>
+      </c>
+      <c r="AB69" t="s">
         <v>51</v>
       </c>
-      <c r="AA69">
-        <v>1</v>
-      </c>
-      <c r="AB69" t="s">
-        <v>52</v>
-      </c>
       <c r="AC69" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C70">
         <v>0.75</v>
       </c>
       <c r="D70" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J70" t="s">
+        <v>55</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70" t="s">
         <v>56</v>
       </c>
-      <c r="K70">
-        <v>1</v>
-      </c>
-      <c r="L70" t="s">
-        <v>57</v>
-      </c>
       <c r="M70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S70">
         <v>0.75</v>
       </c>
       <c r="T70" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA70">
         <v>0.75</v>
       </c>
       <c r="AB70" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C71">
         <v>0.33333333333333331</v>
       </c>
       <c r="D71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J71" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K71">
         <v>0.66666666666666663</v>
       </c>
       <c r="L71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R71" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S71">
         <v>0.33333333333333331</v>
       </c>
       <c r="T71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z71" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA71">
         <v>0.66666666666666663</v>
       </c>
       <c r="AB71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AC71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C72" s="9">
         <v>0.56309523809523809</v>
@@ -4469,7 +4478,7 @@
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K72" s="9">
         <v>0.5714285714285714</v>
@@ -4481,7 +4490,7 @@
       <c r="P72" s="9"/>
       <c r="Q72" s="9"/>
       <c r="R72" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S72" s="9">
         <v>0.53333333333333333</v>
@@ -4493,7 +4502,7 @@
       <c r="X72" s="9"/>
       <c r="Y72" s="9"/>
       <c r="Z72" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA72" s="9">
         <v>0.5357142857142857</v>
@@ -4559,777 +4568,771 @@
     </row>
     <row r="75" spans="1:32" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B75" t="s">
         <v>2</v>
       </c>
       <c r="C75" t="s">
+        <v>115</v>
+      </c>
+      <c r="D75" t="s">
         <v>3</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>4</v>
-      </c>
-      <c r="E75" t="s">
-        <v>5</v>
       </c>
       <c r="J75" t="s">
         <v>2</v>
       </c>
       <c r="K75" t="s">
+        <v>115</v>
+      </c>
+      <c r="L75" t="s">
         <v>3</v>
       </c>
-      <c r="L75" t="s">
+      <c r="M75" t="s">
         <v>4</v>
-      </c>
-      <c r="M75" t="s">
-        <v>5</v>
       </c>
       <c r="R75" t="s">
         <v>2</v>
       </c>
-      <c r="S75" t="s">
+      <c r="T75" t="s">
         <v>3</v>
       </c>
-      <c r="T75" t="s">
+      <c r="U75" t="s">
         <v>4</v>
-      </c>
-      <c r="U75" t="s">
-        <v>5</v>
       </c>
       <c r="Z75" t="s">
         <v>2</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AB75" t="s">
         <v>3</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AC75" t="s">
         <v>4</v>
-      </c>
-      <c r="AC75" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76" t="s">
         <v>6</v>
       </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
+        <v>80</v>
+      </c>
+      <c r="J76" t="s">
+        <v>5</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76" t="s">
+        <v>6</v>
+      </c>
+      <c r="M76" t="s">
         <v>7</v>
       </c>
-      <c r="E76" t="s">
-        <v>81</v>
-      </c>
-      <c r="J76" t="s">
+      <c r="R76" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76" t="s">
         <v>6</v>
       </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76" t="s">
+      <c r="U76" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC76" t="s">
         <v>7</v>
-      </c>
-      <c r="M76" t="s">
-        <v>8</v>
-      </c>
-      <c r="R76" t="s">
-        <v>6</v>
-      </c>
-      <c r="S76">
-        <v>0</v>
-      </c>
-      <c r="T76" t="s">
-        <v>7</v>
-      </c>
-      <c r="U76" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z76" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA76">
-        <v>0</v>
-      </c>
-      <c r="AB76" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC76" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C77">
         <v>0.5</v>
       </c>
       <c r="D77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K77">
         <v>0.5</v>
       </c>
       <c r="L77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S77">
         <v>0.5</v>
       </c>
       <c r="T77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA77">
         <v>0.5</v>
       </c>
       <c r="AB77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C78">
         <v>0.5</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J78" t="s">
+        <v>14</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78" t="s">
         <v>15</v>
       </c>
-      <c r="K78">
-        <v>1</v>
-      </c>
-      <c r="L78" t="s">
-        <v>16</v>
-      </c>
       <c r="M78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R78" t="s">
+        <v>14</v>
+      </c>
+      <c r="S78">
+        <v>1</v>
+      </c>
+      <c r="T78" t="s">
         <v>15</v>
       </c>
-      <c r="S78">
-        <v>1</v>
-      </c>
-      <c r="T78" t="s">
-        <v>16</v>
-      </c>
       <c r="U78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z78" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA78">
+        <v>1</v>
+      </c>
+      <c r="AB78" t="s">
         <v>15</v>
       </c>
-      <c r="AA78">
-        <v>1</v>
-      </c>
-      <c r="AB78" t="s">
-        <v>16</v>
-      </c>
       <c r="AC78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79" t="s">
         <v>18</v>
       </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79" t="s">
-        <v>19</v>
-      </c>
       <c r="E79" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J79" t="s">
+        <v>17</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79" t="s">
         <v>18</v>
       </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-      <c r="L79" t="s">
-        <v>19</v>
-      </c>
       <c r="M79" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R79" t="s">
+        <v>17</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79" t="s">
         <v>18</v>
       </c>
-      <c r="S79">
-        <v>0</v>
-      </c>
-      <c r="T79" t="s">
-        <v>19</v>
-      </c>
       <c r="U79" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z79" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA79">
+        <v>0</v>
+      </c>
+      <c r="AB79" t="s">
         <v>18</v>
       </c>
-      <c r="AA79">
-        <v>0</v>
-      </c>
-      <c r="AB79" t="s">
-        <v>19</v>
-      </c>
       <c r="AC79" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C80">
         <v>0.66666666666666663</v>
       </c>
       <c r="D80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E80" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K80">
         <v>0.66666666666666663</v>
       </c>
       <c r="L80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S80">
         <v>0.66666666666666663</v>
       </c>
       <c r="T80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA80">
         <v>0.66666666666666663</v>
       </c>
       <c r="AB80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C81">
         <v>0.75</v>
       </c>
       <c r="D81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E81" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K81">
         <v>0.5</v>
       </c>
       <c r="L81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S81">
         <v>0.5</v>
       </c>
       <c r="T81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA81">
         <v>0.5</v>
       </c>
       <c r="AB81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="B82" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
         <v>34</v>
       </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
+        <v>102</v>
+      </c>
+      <c r="J82" t="s">
+        <v>33</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82" t="s">
+        <v>34</v>
+      </c>
+      <c r="M82" t="s">
         <v>35</v>
       </c>
-      <c r="E82" t="s">
-        <v>103</v>
-      </c>
-      <c r="J82" t="s">
+      <c r="R82" t="s">
+        <v>33</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82" t="s">
         <v>34</v>
       </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82" t="s">
+      <c r="U82" t="s">
         <v>35</v>
       </c>
-      <c r="M82" t="s">
-        <v>36</v>
-      </c>
-      <c r="R82" t="s">
+      <c r="Z82" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82" t="s">
         <v>34</v>
       </c>
-      <c r="S82">
-        <v>0</v>
-      </c>
-      <c r="T82" t="s">
+      <c r="AC82" t="s">
         <v>35</v>
-      </c>
-      <c r="U82" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z82" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA82">
-        <v>0</v>
-      </c>
-      <c r="AB82" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC82" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" t="s">
+        <v>36</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83" t="s">
         <v>37</v>
       </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>38</v>
       </c>
-      <c r="E83" t="s">
-        <v>39</v>
-      </c>
       <c r="J83" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K83">
         <v>0.5</v>
       </c>
       <c r="L83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M83" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R83" t="s">
+        <v>36</v>
+      </c>
+      <c r="S83">
+        <v>1</v>
+      </c>
+      <c r="T83" t="s">
         <v>37</v>
       </c>
-      <c r="S83">
-        <v>1</v>
-      </c>
-      <c r="T83" t="s">
-        <v>38</v>
-      </c>
       <c r="U83" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z83" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA83">
         <v>0.5</v>
       </c>
       <c r="AB83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC83" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" t="s">
+        <v>39</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
         <v>40</v>
       </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84" t="s">
-        <v>41</v>
-      </c>
       <c r="E84" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J84" t="s">
+        <v>39</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84" t="s">
         <v>40</v>
       </c>
-      <c r="K84">
-        <v>1</v>
-      </c>
-      <c r="L84" t="s">
-        <v>41</v>
-      </c>
       <c r="M84" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R84" t="s">
+        <v>39</v>
+      </c>
+      <c r="S84">
+        <v>1</v>
+      </c>
+      <c r="T84" t="s">
         <v>40</v>
       </c>
-      <c r="S84">
-        <v>1</v>
-      </c>
-      <c r="T84" t="s">
-        <v>41</v>
-      </c>
       <c r="U84" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z84" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA84">
+        <v>1</v>
+      </c>
+      <c r="AB84" t="s">
         <v>40</v>
       </c>
-      <c r="AA84">
-        <v>1</v>
-      </c>
-      <c r="AB84" t="s">
-        <v>41</v>
-      </c>
       <c r="AC84" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C85">
         <v>0.75</v>
       </c>
       <c r="D85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K85">
         <v>0.5</v>
       </c>
       <c r="L85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M85" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S85">
         <v>0.5</v>
       </c>
       <c r="T85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U85" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA85">
         <v>0.5</v>
       </c>
       <c r="AB85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC85" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C86">
         <v>0.66666666666666663</v>
       </c>
       <c r="D86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E86" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K86">
         <v>0.66666666666666663</v>
       </c>
       <c r="L86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M86" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S86">
         <v>0.66666666666666663</v>
       </c>
       <c r="T86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U86" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA86">
         <v>0.66666666666666663</v>
       </c>
       <c r="AB86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AC86" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C87">
         <v>0.8</v>
       </c>
       <c r="D87" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E87" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J87" t="s">
+        <v>50</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87" t="s">
         <v>51</v>
       </c>
-      <c r="K87">
-        <v>1</v>
-      </c>
-      <c r="L87" t="s">
-        <v>52</v>
-      </c>
       <c r="M87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R87" t="s">
+        <v>50</v>
+      </c>
+      <c r="S87">
+        <v>1</v>
+      </c>
+      <c r="T87" t="s">
         <v>51</v>
       </c>
-      <c r="S87">
-        <v>1</v>
-      </c>
-      <c r="T87" t="s">
-        <v>52</v>
-      </c>
       <c r="U87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z87" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA87">
+        <v>1</v>
+      </c>
+      <c r="AB87" t="s">
         <v>51</v>
       </c>
-      <c r="AA87">
-        <v>1</v>
-      </c>
-      <c r="AB87" t="s">
-        <v>52</v>
-      </c>
       <c r="AC87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C88">
         <v>0.75</v>
       </c>
       <c r="D88" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E88" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J88" t="s">
+        <v>55</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88" t="s">
         <v>56</v>
       </c>
-      <c r="K88">
-        <v>1</v>
-      </c>
-      <c r="L88" t="s">
-        <v>57</v>
-      </c>
       <c r="M88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R88" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S88">
         <v>0.75</v>
       </c>
       <c r="T88" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U88" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z88" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA88">
+        <v>1</v>
+      </c>
+      <c r="AB88" t="s">
         <v>56</v>
       </c>
-      <c r="AA88">
-        <v>1</v>
-      </c>
-      <c r="AB88" t="s">
-        <v>57</v>
-      </c>
       <c r="AC88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="B89" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C89">
         <v>0.33333333333333331</v>
       </c>
       <c r="D89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J89" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K89">
         <v>0.66666666666666663</v>
       </c>
       <c r="L89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M89" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R89" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S89">
         <v>0.66666666666666663</v>
       </c>
       <c r="T89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U89" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z89" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA89">
         <v>0.66666666666666663</v>
       </c>
       <c r="AB89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AC89" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="B90" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C90" s="9">
         <v>0.47976190476190472</v>
@@ -5341,7 +5344,7 @@
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
       <c r="J90" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K90" s="9">
         <v>0.5714285714285714</v>
@@ -5353,9 +5356,9 @@
       <c r="P90" s="9"/>
       <c r="Q90" s="9"/>
       <c r="R90" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="S90" s="9">
+        <v>60</v>
+      </c>
+      <c r="S90" s="10">
         <v>0.5892857142857143</v>
       </c>
       <c r="T90" s="9"/>
@@ -5365,9 +5368,9 @@
       <c r="X90" s="9"/>
       <c r="Y90" s="9"/>
       <c r="Z90" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA90" s="9">
+        <v>60</v>
+      </c>
+      <c r="AA90" s="10">
         <v>0.5714285714285714</v>
       </c>
       <c r="AB90" s="9"/>
